--- a/src/assets/Portfolio-template.xlsx
+++ b/src/assets/Portfolio-template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pravin/Documents/Code Practice/portfoliotracking/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C33F5-9EA1-C74D-A2D3-BDBDFB5AE083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC5AEAF-2245-3541-8FC4-AD6C9AF680B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{FF0929E3-AE4A-3E42-A30F-53F20A1CD350}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" xr2:uid="{E8A88730-2E33-2643-9DAC-BC5ECFCAC020}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
+    <sheet name="Transactions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +34,210 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Trade Date</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>USG</t>
+  </si>
+  <si>
+    <t>NZX</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>NPF</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>EUF</t>
+  </si>
+  <si>
+    <t>EMF</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>SPK</t>
+  </si>
+  <si>
+    <t>FNZ</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>Stock Ticker</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Avg. Cost</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Market Value</t>
+  </si>
+  <si>
+    <t>Avg. Investment Value</t>
+  </si>
+  <si>
+    <t>Gain/Loss (Unrealised)</t>
+  </si>
+  <si>
+    <t>Amount Invested</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Total Gain/Loss (Unrealised)</t>
+  </si>
+  <si>
+    <t>Total Investment Value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-1409]* #,##0.00_);_([$$-1409]* \(#,##0.00\);_([$$-1409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-1409]* #,##0.00_-;\-[$$-1409]* #,##0.00_-;_-[$$-1409]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,8 +263,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +288,2307 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Portfolio!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Market Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-401B-EE4A-8965-46C67FA475A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-401B-EE4A-8965-46C67FA475A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Portfolio!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>USG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>USF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Portfolio!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-1409]* #,##0.00_-;\-[$$-1409]* #,##0.00_-;_-[$$-1409]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43.287226424000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.964765331999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.410491879999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-401B-EE4A-8965-46C67FA475A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB50A668-1AE0-D14E-8146-5F8D6A96D206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=alqz7w&amp;q=XNZE%3aUSG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>Smartshares US Large Gth ETF (XNZE:USG)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-GB</v>
+    <v>alqz7w</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>8.1989999999999998</v>
+    <v>6.19</v>
+    <v>1.0482</v>
+    <v>0.128</v>
+    <v>1.5980000000000001E-2</v>
+    <v>NZD</v>
+    <v>New Zealand Exchange Ltd</v>
+    <v>XNZE</v>
+    <v>5.1000000000000004E-3</v>
+    <v>8.1790000000000003</v>
+    <v>ETF</v>
+    <v>44398.229166666664</v>
+    <v>0</v>
+    <v>8.1010000000000009</v>
+    <v>140672318</v>
+    <v>Smartshares US Large Gth ETF</v>
+    <v>8.1010000000000009</v>
+    <v>8.01</v>
+    <v>8.1379999999999999</v>
+    <v>USG</v>
+    <v>Smartshares US Large Gth ETF (XNZE:USG)</v>
+    <v>39696</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=alqz52&amp;q=XNZE%3aUSF&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>Smartshares US 500 ETF (XNZE:USF)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-GB</v>
+    <v>alqz52</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>11.474</v>
+    <v>8.875</v>
+    <v>0.9869</v>
+    <v>0.14699999999999999</v>
+    <v>1.3009E-2</v>
+    <v>NZD</v>
+    <v>New Zealand Exchange Ltd</v>
+    <v>XNZE</v>
+    <v>3.4000000000000002E-3</v>
+    <v>11.449</v>
+    <v>ETF</v>
+    <v>44398.229166666664</v>
+    <v>3</v>
+    <v>11.362</v>
+    <v>383914452</v>
+    <v>Smartshares US 500 ETF</v>
+    <v>11.362</v>
+    <v>11.3</v>
+    <v>11.446999999999999</v>
+    <v>USF</v>
+    <v>Smartshares US 500 ETF (XNZE:USF)</v>
+    <v>25180</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=alqxf2&amp;q=XNZE%3aSPK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>5</v>
+    <v>SPARK NEW ZEALAND LIMITED (XNZE:SPK)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>en-GB</v>
+    <v>alqxf2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5.09</v>
+    <v>4.37</v>
+    <v>0.52239999999999998</v>
+    <v>-0.01</v>
+    <v>-2.075E-3</v>
+    <v>NZD</v>
+    <v>Spark New Zealand Limited is a supplier of telecommunications and digital services in New Zealand. The Company provides a range of telecommunications, information technology, media and other digital products and services, including: mobile services; voice services; broadband services; Internet television (TV); cloud, security and service management services; procurement and partner services and managed data and networks services. The Company’s segments include mobile; voice; broadband; cloud, security, and service management; procurement and partners; managed data and networks, and other. The Company’s subsidiaries include Computer Concepts Limited, Digital Island Limited, Gen-i Australia Pty Limited, Lightbox New Zealand, Qrious Limited, Revera Limited, Spark Finance Limited, Spark New Zealand Trading Limited and Spark Retail Holdings Limited.</v>
+    <v>4961</v>
+    <v>New Zealand Exchange Ltd</v>
+    <v>XNZE</v>
+    <v>XNZE</v>
+    <v>Level 2, 167 Victoria Street West, AUCKLAND, NEW ZEALAND-NA, 1010 NZ</v>
+    <v>4.8499999999999996</v>
+    <v>Telecommunications Services</v>
+    <v>Stock</v>
+    <v>44398.229166666664</v>
+    <v>6</v>
+    <v>4.7850000000000001</v>
+    <v>8999543000</v>
+    <v>SPARK NEW ZEALAND LIMITED</v>
+    <v>SPARK NEW ZEALAND LIMITED</v>
+    <v>4.8499999999999996</v>
+    <v>21.7</v>
+    <v>4.82</v>
+    <v>4.8099999999999996</v>
+    <v>1867125000</v>
+    <v>SPK</v>
+    <v>SPARK NEW ZEALAND LIMITED (XNZE:SPK)</v>
+    <v>1571678</v>
+    <v>1987</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="Expense ratio"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Year incorporated"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="2">
+    <a count="33">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="41">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="9">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>1</v>
+      <v>7</v>
+      <v>8</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 20 minutes</v>
+      <v>from previous close</v>
+      <v>NZX</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="6">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>9</v>
+      <v>8</v>
+      <v>4</v>
+    </spb>
+    <spb s="7">
+      <v>Delayed 20 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>NZX</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="8">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Expense ratio" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="8">
+    <x:dxf>
+      <x:numFmt numFmtId="165" formatCode="_([$$-1409]* #,##0.00_);_([$$-1409]* \(#,##0.00\);_([$$-1409]* &quot;-&quot;??_);_(@_)"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="164" formatCode="_([$$-1409]* #,##0_);_([$$-1409]* \(#,##0\);_([$$-1409]* &quot;-&quot;_);_(@_)"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="d/mm/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty dxfid="1"/>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="3"/>
+    <rSty dxfid="4"/>
+    <rSty dxfid="5"/>
+    <rSty dxfid="6"/>
+    <rSty dxfid="7"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,13 +2887,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80887982-7EE7-294D-9B51-D93BD5C75F28}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D32987-548E-4F46-BA74-462D603C312E}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2">_FV(A2,"Ticker symbol",TRUE)</f>
+        <v>USG</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">_FV(A2,"Price")</f>
+        <v>8.1379999999999999</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGEIFS(Transactions!F:F,Transactions!C:C,Portfolio!B2,Transactions!G:G,"BUY")</f>
+        <v>5.64</v>
+      </c>
+      <c r="E2">
+        <f>SUMIFS(Transactions!E:E,Transactions!C:C,Portfolio!B2,Transactions!G:G,"BUY")-SUMIFS(Transactions!E:E,Transactions!C:C,Portfolio!B2,Transactions!G:G,"SELL")</f>
+        <v>5.3191480000000002</v>
+      </c>
+      <c r="F2" s="4">
+        <f>E2*C2</f>
+        <v>43.287226424000004</v>
+      </c>
+      <c r="G2" s="6">
+        <f>D2*E2</f>
+        <v>29.99999472</v>
+      </c>
+      <c r="H2" s="5">
+        <f>((F2-G2)/G2)</f>
+        <v>0.44290780141843983</v>
+      </c>
+      <c r="I2">
+        <f>SUMIFS(Transactions!K:K,Transactions!C:C,Portfolio!B2,Transactions!G:G,"BUY")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">_FV(A3,"Ticker symbol",TRUE)</f>
+        <v>USF</v>
+      </c>
+      <c r="C3" s="3" cm="1">
+        <f t="array" ref="C3">_FV(A3,"Price")</f>
+        <v>11.446999999999999</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGEIFS(Transactions!F:F,Transactions!C:C,Portfolio!B3,Transactions!G:G,"BUY")</f>
+        <v>8.65</v>
+      </c>
+      <c r="E3">
+        <f>SUMIFS(Transactions!E:E,Transactions!C:C,Portfolio!B3,Transactions!G:G,"BUY")-SUMIFS(Transactions!E:E,Transactions!C:C,Portfolio!B3,Transactions!G:G,"SELL")</f>
+        <v>4.6269559999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3*C3</f>
+        <v>52.964765331999992</v>
+      </c>
+      <c r="G3" s="6">
+        <f>D3*E3</f>
+        <v>40.0231694</v>
+      </c>
+      <c r="H3" s="5">
+        <f>((F3-G3)/G3)</f>
+        <v>0.32335260115606912</v>
+      </c>
+      <c r="I3">
+        <f>SUMIFS(Transactions!K:K,Transactions!C:C,Portfolio!B3,Transactions!G:G,"BUY")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4">_FV(A4,"Ticker symbol",TRUE)</f>
+        <v>SPK</v>
+      </c>
+      <c r="C4" s="3" cm="1">
+        <f t="array" ref="C4">_FV(A4,"Price")</f>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGEIFS(Transactions!F:F,Transactions!C:C,Portfolio!B4,Transactions!G:G,"BUY")</f>
+        <v>4.43</v>
+      </c>
+      <c r="E4">
+        <f>SUMIFS(Transactions!E:E,Transactions!C:C,Portfolio!B4,Transactions!G:G,"BUY")-SUMIFS(Transactions!E:E,Transactions!C:C,Portfolio!B4,Transactions!G:G,"SELL")</f>
+        <v>6.7381479999999998</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F9" si="0">E4*C4</f>
+        <v>32.410491879999995</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G9" si="1">D4*E4</f>
+        <v>29.849995639999996</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H9" si="2">((F4-G4)/G4)</f>
+        <v>8.5778781038374705E-2</v>
+      </c>
+      <c r="I4">
+        <f>SUMIFS(Transactions!K:K,Transactions!C:C,Portfolio!B4,Transactions!G:G,"BUY")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4">
+        <f>SUM(F2:F14)</f>
+        <v>128.66248363599999</v>
+      </c>
+      <c r="C18" s="6">
+        <f>SUM(G2:G14)</f>
+        <v>99.873159759999993</v>
+      </c>
+      <c r="D18" s="5">
+        <f>(B18-C18)/C18</f>
+        <v>0.28825886699872244</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C854F96-EE2D-1C41-956A-A11A63930FD3}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>5.3191480000000002</v>
+      </c>
+      <c r="F2">
+        <v>5.64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>24.590163</v>
+      </c>
+      <c r="F3">
+        <v>1.22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>10.344827</v>
+      </c>
+      <c r="F4">
+        <v>2.9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>4.991638</v>
+      </c>
+      <c r="F5">
+        <v>5.98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>19.230768999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>24.793388</v>
+      </c>
+      <c r="F7">
+        <v>1.21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>25.404254999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>6.7381479999999998</v>
+      </c>
+      <c r="F9">
+        <v>4.43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>11.131724999999999</v>
+      </c>
+      <c r="F10">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>3.4722219999999999</v>
+      </c>
+      <c r="F11">
+        <v>8.64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>1.7066889999999999</v>
+      </c>
+      <c r="F12">
+        <v>5.83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.05</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>6.583278</v>
+      </c>
+      <c r="F13">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1.1547339999999999</v>
+      </c>
+      <c r="F14">
+        <v>8.66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>3.344481</v>
+      </c>
+      <c r="F15">
+        <v>2.99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>